--- a/data/trans_orig/Q03B_FES-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q03B_FES-Provincia-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.005474641643058</v>
+        <v>1.010821386318392</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.42495414668445</v>
+        <v>1.420053541542213</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.367071426910707</v>
+        <v>1.386793265806895</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.595017083615771</v>
+        <v>2.589161153534773</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.848985936840441</v>
+        <v>3.800954465440824</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.202065335896689</v>
+        <v>3.190339376985258</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.801159242034733</v>
+        <v>1.807189135767754</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.680320574779201</v>
+        <v>2.66954206785723</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.355683471400098</v>
+        <v>2.361834607622256</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.291321974042003</v>
+        <v>1.317187932016079</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.89044814222504</v>
+        <v>1.878470297554854</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.821913905639283</v>
+        <v>1.833836510567118</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.010400693509308</v>
+        <v>2.977776583843159</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.544348336186854</v>
+        <v>4.485366815928428</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.862532053777417</v>
+        <v>3.837508118330296</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.099574677078132</v>
+        <v>2.096538060469975</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.150115901004507</v>
+        <v>3.122496752325852</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.788348667578257</v>
+        <v>2.779315954157038</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.756032541343996</v>
+        <v>1.771457768162209</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9801831304178706</v>
+        <v>0.9817642285654608</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.075323832834181</v>
+        <v>1.06545516659142</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.833436640225002</v>
+        <v>3.860455198634381</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.26144445516986</v>
+        <v>3.236968952397129</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.171225548872993</v>
+        <v>3.156127205693657</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.881635362498463</v>
+        <v>2.869656515776913</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.159818441636767</v>
+        <v>2.151237871695949</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.205008868142626</v>
+        <v>2.184205147986964</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.181069481666967</v>
+        <v>2.188175871879352</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.248524027288607</v>
+        <v>1.255491319834129</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.282387936070289</v>
+        <v>1.285054780358003</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.289144234514997</v>
+        <v>4.30311665675643</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.662393194360795</v>
+        <v>3.664274057380983</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.527108384433633</v>
+        <v>3.512503597834372</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>3.220995408906839</v>
+        <v>3.204987778886413</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.444598707615036</v>
+        <v>2.451191756013242</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>2.467224681564088</v>
+        <v>2.459675467780583</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7291760786232635</v>
+        <v>0.7276032191151286</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.169766378965376</v>
+        <v>1.149310148650586</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.61690144873752</v>
+        <v>1.628927045564261</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.892769428151119</v>
+        <v>2.901927689145912</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.736621506390863</v>
+        <v>2.723286130299165</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.704340152040541</v>
+        <v>2.70685323143169</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.86114977788464</v>
+        <v>1.852048643593553</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.9964501375496</v>
+        <v>2.013180897876101</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.222611196237578</v>
+        <v>2.218572869800548</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9665427673921347</v>
+        <v>0.9812317970069044</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.445968222814141</v>
+        <v>1.450889705297243</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.947312786687288</v>
+        <v>1.961980388170925</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.399982309855123</v>
+        <v>3.429713136170819</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.144981139952888</v>
+        <v>3.135802240849351</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.069966207712266</v>
+        <v>3.065092088097846</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.196137802183515</v>
+        <v>2.222086268351904</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.286795382276575</v>
+        <v>2.282589365216035</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.478192623333678</v>
+        <v>2.488382594054839</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8389622895414044</v>
+        <v>0.8534951742102299</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.755699975565563</v>
+        <v>1.75211423993</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.606464116877798</v>
+        <v>1.587847140957406</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.826127897873182</v>
+        <v>2.830290030316619</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>4.09211690274631</v>
+        <v>4.067900297857255</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.177641020092264</v>
+        <v>3.170986168235804</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.866498083036267</v>
+        <v>1.862248710237724</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.998870610403654</v>
+        <v>2.998300886741135</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.444362439772523</v>
+        <v>2.442094511285061</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.115998784985681</v>
+        <v>1.11781426541262</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.170072585681503</v>
+        <v>2.168913474404912</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.912687612044098</v>
+        <v>1.926681750639495</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.261396118954444</v>
+        <v>3.296804093374989</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>4.611666133070762</v>
+        <v>4.614269168320918</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.651032069286606</v>
+        <v>3.642723973337037</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.172383610710019</v>
+        <v>2.162685099444931</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>3.400271391174766</v>
+        <v>3.404109312382413</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2.751046465222404</v>
+        <v>2.77387563202223</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.148678742071112</v>
+        <v>1.115738085628101</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7732708618737705</v>
+        <v>0.7905987447569646</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.852182151493676</v>
+        <v>1.868986801379815</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.963406253413582</v>
+        <v>3.980506513479356</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.994625836916229</v>
+        <v>3.021120589052509</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.83856963345131</v>
+        <v>4.806560109325168</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.645424044682087</v>
+        <v>2.631892501424257</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.948837277520693</v>
+        <v>1.94175703770448</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.379951479859648</v>
+        <v>3.373357233697293</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.700606597312476</v>
+        <v>1.691284430967791</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.136421951451526</v>
+        <v>1.13990365785908</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.239818617885804</v>
+        <v>2.236026361491181</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.871592670774317</v>
+        <v>4.848941293066057</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.606856748155669</v>
+        <v>3.647717786958989</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.358202261176719</v>
+        <v>5.358524031970727</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.240310533343855</v>
+        <v>3.209246659419451</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.385571115838706</v>
+        <v>2.383243199557019</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.829819462126353</v>
+        <v>3.820516172416008</v>
       </c>
     </row>
     <row r="19">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7478685753018763</v>
+        <v>0.7381304989954468</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.083359942706726</v>
+        <v>1.101317570563615</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.876006189053739</v>
+        <v>1.860133270331086</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.924020970437588</v>
+        <v>2.924738831365012</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2.941915472959046</v>
+        <v>2.953119621526692</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.499614539181836</v>
+        <v>3.464535937805275</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1.915735115910564</v>
+        <v>1.902179718724287</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>2.064736870831881</v>
+        <v>2.059914055742512</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>2.733258966120141</v>
+        <v>2.747340290963858</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.020771147614014</v>
+        <v>1.014364695523646</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.451506523765139</v>
+        <v>1.464226961107161</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.277733460248242</v>
+        <v>2.275666706341254</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.433386883312616</v>
+        <v>3.424218473395082</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>3.465459781900287</v>
+        <v>3.473249066601647</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>4.003408233457533</v>
+        <v>3.99472109091035</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>2.259360534789928</v>
+        <v>2.250617507391936</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>2.421209511446413</v>
+        <v>2.393515812278773</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>3.098697660963019</v>
+        <v>3.097766925885663</v>
       </c>
     </row>
     <row r="22">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.698400035408914</v>
+        <v>1.684145844006983</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.239787135794648</v>
+        <v>1.231570071824265</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.428157588854095</v>
+        <v>1.436129955714563</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.509987762763208</v>
+        <v>3.520756041618361</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.688717737136212</v>
+        <v>2.681845637676196</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.737682643660378</v>
+        <v>2.736222157158507</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.663309433265294</v>
+        <v>2.662506267821193</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.008609937660197</v>
+        <v>2.003512911937219</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.14249383351055</v>
+        <v>2.160152187509782</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.116208371572496</v>
+        <v>2.125803314457441</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.464235906218556</v>
+        <v>1.447290494952198</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.73558476063614</v>
+        <v>1.777256346593715</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.908553151285558</v>
+        <v>3.889697739049902</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.965897467196005</v>
+        <v>2.96787319674928</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.104078039735087</v>
+        <v>3.097339065218463</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.955796481296365</v>
+        <v>2.966155274473747</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.189718746999023</v>
+        <v>2.201541372908045</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.418276142910543</v>
+        <v>2.414220958736859</v>
       </c>
     </row>
     <row r="25">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.191566631506648</v>
+        <v>1.190828607649327</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.763483313468978</v>
+        <v>1.774199838107138</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.804070897128266</v>
+        <v>1.812219368535739</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.449999866894391</v>
+        <v>3.45412669222617</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>3.123012195693709</v>
+        <v>3.102631998844748</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>3.317763365943854</v>
+        <v>3.321837803046092</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>2.374520929454945</v>
+        <v>2.365696551253821</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>2.496484987917591</v>
+        <v>2.49785424273761</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>2.607116100122745</v>
+        <v>2.606865700082793</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.473130352153761</v>
+        <v>1.473885631215418</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.037005772182667</v>
+        <v>2.025014752928461</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.988826032815489</v>
+        <v>1.988563250243941</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.841505018060127</v>
+        <v>3.851329543500893</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>3.421124187221832</v>
+        <v>3.411314660622511</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>3.571294663922308</v>
+        <v>3.573699710613083</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>2.651422639931384</v>
+        <v>2.648769917448384</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>2.707212849753247</v>
+        <v>2.69492009814303</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>2.785745215129851</v>
+        <v>2.793080435120071</v>
       </c>
     </row>
     <row r="28">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.330327135719688</v>
+        <v>1.326867221628234</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.428548374303939</v>
+        <v>1.433106770451055</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.645638228192951</v>
+        <v>1.650219788829972</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.454378516006998</v>
+        <v>3.46057966943599</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.290248245080118</v>
+        <v>3.289554788369473</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.317441615313623</v>
+        <v>3.317365681875129</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.426104290587473</v>
+        <v>2.425791652793555</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.394038190498093</v>
+        <v>2.393633520203317</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.528315444357102</v>
+        <v>2.524067431344988</v>
       </c>
     </row>
     <row r="30">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.4599589158911</v>
+        <v>1.467558949277577</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.536635394008077</v>
+        <v>1.544762673407761</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.76123066056227</v>
+        <v>1.759940973633139</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.624379279829052</v>
+        <v>3.627129492211294</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.447643114162893</v>
+        <v>3.43768838461219</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.462577036557517</v>
+        <v>3.470328699680549</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.551039140453277</v>
+        <v>2.550698753374701</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.505080162974613</v>
+        <v>2.496274346364142</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.632803802593389</v>
+        <v>2.634575017866537</v>
       </c>
     </row>
     <row r="31">
